--- a/data/trans_orig/P36$cafe-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36$cafe-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97B1DFCE-3A15-4852-8248-6093CF9A31BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A077C37A-A256-4583-9CE9-27E5133A9A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3AC1191-DA14-425C-982D-F8D97F0510B5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4FFC84A7-159A-47F2-A9AF-7D634D38AA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="571">
   <si>
-    <t>Población según alimentos que desayuna habitualmente en 2007</t>
+    <t>Población según alimentos que desayuna habitualmente (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -697,7 +697,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según alimentos que desayuna habitualmente en 2012</t>
+    <t>Población según alimentos que desayuna habitualmente (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>92,5%</t>
@@ -1228,7 +1228,7 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>Población según alimentos que desayuna habitualmente en 2016</t>
+    <t>Población según alimentos que desayuna habitualmente (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>91,44%</t>
@@ -2162,7 +2162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF26D0A-A273-4210-BDB4-E3E28A5852FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F1BCDD-98F6-431E-B139-6E9C2E446A4F}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3063,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D59323-3649-4242-A92B-D8D984980A6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E3DA44-94D9-45D3-850D-E4216EA20BA3}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3964,7 +3964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6C7228-CB86-41BF-9583-DED221D1871C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89B80DE-34FB-4EE6-801A-A19BA8882A4C}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
